--- a/317 Newell St/Results/Excels/Rent Estimates.xlsx
+++ b/317 Newell St/Results/Excels/Rent Estimates.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/puzgEX_PvZg/quickview</t>
+          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/ts4SSOAOOsk/quickview</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19">
@@ -673,7 +673,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>puzgEX_PvZg</t>
+          <t>ts4SSOAOOsk</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=puzgEX_PvZg'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=puzgEX_PvZg'}]</t>
+          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=ts4SSOAOOsk'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=ts4SSOAOOsk'}]</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1489</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="4">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>828</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1516</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="6">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.5</v>
+        <v>1319.5</v>
       </c>
     </row>
     <row r="9">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1418.5</v>
+        <v>1429.5</v>
       </c>
     </row>
     <row r="10">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1375.5</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="11">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1384</v>
+        <v>1371.666666666667</v>
       </c>
     </row>
     <row r="2">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1378</v>
+        <v>1365.666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1260.75</v>
+        <v>1261.75</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1352.75</v>
+        <v>1358.25</v>
       </c>
     </row>
   </sheetData>

--- a/317 Newell St/Results/Excels/Rent Estimates.xlsx
+++ b/317 Newell St/Results/Excels/Rent Estimates.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/ts4SSOAOOsk/quickview</t>
+          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/-LFNYcE-hBs/quickview</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="19">
@@ -673,7 +673,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ts4SSOAOOsk</t>
+          <t>-LFNYcE-hBs</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=ts4SSOAOOsk'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=ts4SSOAOOsk'}]</t>
+          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=-LFNYcE-hBs'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=-LFNYcE-hBs'}]</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1452</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="4">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="5">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1538</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="6">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1319.5</v>
+        <v>1365.25</v>
       </c>
     </row>
     <row r="9">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1429.5</v>
+        <v>1458.75</v>
       </c>
     </row>
     <row r="10">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1369</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1371.666666666667</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1365.666666666667</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="3">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1261.75</v>
+        <v>1284.625</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1358.25</v>
+        <v>1372.875</v>
       </c>
     </row>
   </sheetData>

--- a/317 Newell St/Results/Excels/Rent Estimates.xlsx
+++ b/317 Newell St/Results/Excels/Rent Estimates.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="9">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1263</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="14">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/-LFNYcE-hBs/quickview</t>
+          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/on3TP32HDUw/quickview</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="19">
@@ -673,7 +673,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-LFNYcE-hBs</t>
+          <t>on3TP32HDUw</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=-LFNYcE-hBs'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=-LFNYcE-hBs'}]</t>
+          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=on3TP32HDUw'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=on3TP32HDUw'}]</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1504</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="4">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="6">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1365.25</v>
+        <v>1324.75</v>
       </c>
     </row>
     <row r="9">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1458.75</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="10">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1420</v>
+        <v>1361.5</v>
       </c>
     </row>
     <row r="11">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1389</v>
+        <v>1360.333333333333</v>
       </c>
     </row>
     <row r="2">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1383</v>
+        <v>1357.666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1284.625</v>
+        <v>1262.375</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1372.875</v>
+        <v>1348</v>
       </c>
     </row>
   </sheetData>

--- a/317 Newell St/Results/Excels/Rent Estimates.xlsx
+++ b/317 Newell St/Results/Excels/Rent Estimates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Rentometer" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Zillow" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="rentometer_zillow_user_avg_est" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rentometer" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zillow" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rentometer_zillow_user_avg_est" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1242</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="9">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="10">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1200</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="13">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1283</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="14">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/on3TP32HDUw/quickview</t>
+          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/dKtNb12jAuc/quickview</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1953</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="19">
@@ -673,7 +673,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>on3TP32HDUw</t>
+          <t>dKtNb12jAuc</t>
         </is>
       </c>
     </row>
@@ -685,13 +685,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=on3TP32HDUw'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=on3TP32HDUw'}]</t>
+          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=dKtNb12jAuc'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=dKtNb12jAuc'}]</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1431</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>870</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1324.75</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1413</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="10">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1361.5</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="11">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1360.333333333333</v>
+        <v>1283.333333333333</v>
       </c>
     </row>
     <row r="2">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1357.666666666667</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="3">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1262.375</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1348</v>
+        <v>1282.5</v>
       </c>
     </row>
   </sheetData>

--- a/317 Newell St/Results/Excels/Rent Estimates.xlsx
+++ b/317 Newell St/Results/Excels/Rent Estimates.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/dKtNb12jAuc/quickview</t>
+          <t>https://www.rentometer.com/analysis/3-bed/317-newell-st-barberton-oh-44203/5huWv3zgogk/quickview</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="19">
@@ -673,7 +673,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dKtNb12jAuc</t>
+          <t>5huWv3zgogk</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=dKtNb12jAuc'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=dKtNb12jAuc'}]</t>
+          <t>[{'rel': 'request pro report', 'href': 'https://www.rentometer.com/api/v1/request_pro_report?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=5huWv3zgogk'}, {'rel': 'nearby comps', 'href': 'https://www.rentometer.com/api/v1/nearby_comps?api_key=fHSGZM7POi6V5ZPR0w4CXA&amp;token=5huWv3zgogk'}]</t>
         </is>
       </c>
     </row>
